--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -997,10 +1009,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1044,28 +1056,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1090,28 +1102,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1286,10 +1298,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1333,28 +1345,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1379,28 +1391,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1575,10 +1587,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1622,28 +1634,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1668,28 +1680,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1835,10 +1847,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1882,28 +1894,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1928,28 +1940,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2124,10 +2136,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2171,28 +2183,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2217,28 +2229,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2413,10 +2425,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2460,28 +2472,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2506,28 +2518,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2702,10 +2714,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2749,28 +2761,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2795,28 +2807,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3020,10 +3032,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3067,28 +3079,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3113,28 +3125,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3338,10 +3350,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3385,28 +3397,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3431,28 +3443,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3656,10 +3668,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3703,28 +3715,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3749,28 +3761,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3974,10 +3986,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4021,28 +4033,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4067,28 +4079,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4234,10 +4246,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4281,28 +4293,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4327,28 +4339,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4465,10 +4477,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4512,28 +4524,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4558,28 +4570,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4725,10 +4737,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4772,28 +4784,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4818,28 +4830,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4985,10 +4997,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5032,28 +5044,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5078,28 +5090,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5187,10 +5199,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5234,28 +5246,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5280,28 +5292,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5389,10 +5401,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5436,28 +5448,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5482,28 +5494,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5649,10 +5661,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5696,28 +5708,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5742,28 +5754,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5880,10 +5892,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5927,28 +5939,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5973,28 +5985,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6053,10 +6065,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6100,28 +6112,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6146,28 +6158,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6255,10 +6267,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6302,28 +6314,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6348,28 +6360,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6428,10 +6440,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6475,28 +6487,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6521,28 +6533,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6630,10 +6642,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6677,28 +6689,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6723,28 +6735,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6803,10 +6815,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
